--- a/backend/fms_core/tests/valid_templates/Library_QC_v4_4_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Library_QC_v4_4_0.xlsx
@@ -2001,7 +2001,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.88"/>
@@ -2244,68 +2244,34 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="17" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" s="18" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I8" s="18" t="n">
-        <v>100</v>
-      </c>
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="18" t="n">
-        <v>2734.011</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="R8" s="22" t="s">
-        <v>36</v>
-      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="22"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D9" s="17" t="n">
         <v>100</v>
@@ -2339,40 +2305,71 @@
         <v>27</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P9" s="20" t="s">
         <v>28</v>
       </c>
       <c r="Q9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="17" t="n">
+        <v>100</v>
+      </c>
+      <c r="E10" s="18" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="18" t="n">
+        <v>100</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18" t="n">
+        <v>2734.011</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="R9" s="22" t="s">
+      <c r="R10" s="22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="15" t="str">
-        <f aca="true">IF(OR(ISBLANK(E10),AND(OR(ISBLANK(G10),ISBLANK(H10),ISBLANK(I10)),ISBLANK(J10))),"",IF(ISBLANK(J10),(E10-F10)*I10*H10*INDIRECT(SUBSTITUTE(G10," ","_"))/1000000,(E10-F10)*J10))</f>
-        <v/>
-      </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="14"/>
@@ -2535,7 +2532,7 @@
       <c r="Q17" s="21"/>
       <c r="R17" s="22"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
@@ -4445,30 +4442,50 @@
       <c r="R100" s="22"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="23"/>
-      <c r="B101" s="24"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
-      <c r="K101" s="29" t="str">
+      <c r="A101" s="14"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="15" t="str">
         <f aca="true">IF(OR(ISBLANK(E101),AND(OR(ISBLANK(G101),ISBLANK(H101),ISBLANK(I101)),ISBLANK(J101))),"",IF(ISBLANK(J101),(E101-F101)*I101*H101*INDIRECT(SUBSTITUTE(G101," ","_"))/1000000,(E101-F101)*J101))</f>
         <v/>
       </c>
-      <c r="L101" s="27"/>
-      <c r="M101" s="28"/>
-      <c r="N101" s="27"/>
-      <c r="O101" s="24"/>
-      <c r="P101" s="30"/>
-      <c r="Q101" s="31"/>
-      <c r="R101" s="32"/>
-    </row>
-    <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="O102" s="5"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="18"/>
+      <c r="O101" s="15"/>
+      <c r="P101" s="20"/>
+      <c r="Q101" s="21"/>
+      <c r="R101" s="22"/>
+    </row>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="23"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="29" t="str">
+        <f aca="true">IF(OR(ISBLANK(E102),AND(OR(ISBLANK(G102),ISBLANK(H102),ISBLANK(I102)),ISBLANK(J102))),"",IF(ISBLANK(J102),(E102-F102)*I102*H102*INDIRECT(SUBSTITUTE(G102," ","_"))/1000000,(E102-F102)*J102))</f>
+        <v/>
+      </c>
+      <c r="L102" s="27"/>
+      <c r="M102" s="28"/>
+      <c r="N102" s="27"/>
+      <c r="O102" s="24"/>
+      <c r="P102" s="30"/>
+      <c r="Q102" s="31"/>
+      <c r="R102" s="32"/>
     </row>
     <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O103" s="5"/>
@@ -4938,7 +4955,7 @@
     <row r="258" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O258" s="5"/>
     </row>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O259" s="5"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5067,7 +5084,7 @@
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O301" s="5"/>
     </row>
-    <row r="302" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O302" s="5"/>
     </row>
     <row r="303" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7158,47 +7175,49 @@
     <row r="998" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O998" s="5"/>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="999" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="O999" s="5"/>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="10">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L10:L101" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L11:L102" type="list">
       <formula1>Index!$D$2:$D$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N10:N101" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N11:N102" type="list">
       <formula1>Index!$E$2:$E$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G10:G101" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G11:G102" type="list">
       <formula1>Index!$F$2:$F$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M10:M101 O10:O101" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M11:M102 O11:O102" type="list">
       <formula1>Index!$C$2:$C$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R10:R101" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R11:R102" type="list">
       <formula1>Index!$K$2:$K$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:G9" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:G10" type="list">
       <formula1>Info!$F$2:$F$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L6:L9" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L6:L10" type="list">
       <formula1>Info!$D$2:$D$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M6:M9 O6:O9" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M6:M10 O6:O10" type="list">
       <formula1>Info!$C$2:$C$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N6:N9" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N6:N10" type="list">
       <formula1>Info!$E$2:$E$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R6:R9" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R6:R10" type="list">
       <formula1>Info!$K$2:$K$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7225,7 +7244,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.18"/>
   </cols>
@@ -8944,7 +8963,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.5"/>
